--- a/DDAf_2022_Groupements_de_pays.xlsx
+++ b/DDAf_2022_Groupements_de_pays.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11990"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11150"/>
   </bookViews>
   <sheets>
     <sheet name="Groupements de pays" sheetId="1" r:id="rId1"/>
@@ -18398,7 +18398,7 @@
     <hyperlink ref="B1" location="Contenu!A1" display="Retour au Contenu"/>
     <hyperlink ref="B211" r:id="rId1"/>
     <hyperlink ref="B213" r:id="rId2"/>
-    <hyperlink ref="B214" r:id="rId3" display="Si vous souhaitez explorer ces statistiques plus en profondeur, consulter les valeurs historiques de ces indicateurs ou produire des visualisations interactives, veuillez visiter le site Web https://oe.cd/AFDD-2022-fr."/>
+    <hyperlink ref="B214" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>

--- a/DDAf_2022_Groupements_de_pays.xlsx
+++ b/DDAf_2022_Groupements_de_pays.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10990"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
   </bookViews>
   <sheets>
     <sheet name="Groupements de pays" sheetId="1" r:id="rId1"/>
@@ -2060,7 +2060,7 @@
       <c r="Z2" s="6"/>
       <c r="AA2" s="6"/>
     </row>
-    <row r="3" spans="1:27" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:27" ht="42" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
         <v>2</v>
       </c>

--- a/DDAf_2022_Groupements_de_pays.xlsx
+++ b/DDAf_2022_Groupements_de_pays.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10490"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="5590"/>
   </bookViews>
   <sheets>
     <sheet name="Groupements de pays" sheetId="1" r:id="rId1"/>
@@ -17697,7 +17697,7 @@
         <v>38</v>
       </c>
       <c r="M191" s="16" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="N191" s="16" t="s">
         <v>38</v>

--- a/DDAf_2022_Groupements_de_pays.xlsx
+++ b/DDAf_2022_Groupements_de_pays.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="5590"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
   </bookViews>
   <sheets>
     <sheet name="Groupements de pays" sheetId="1" r:id="rId1"/>

--- a/DDAf_2022_Groupements_de_pays.xlsx
+++ b/DDAf_2022_Groupements_de_pays.xlsx
@@ -9,13 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10400"/>
   </bookViews>
   <sheets>
     <sheet name="Groupements de pays" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Groupements de pays'!$A$3:$W$196</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Groupements de pays'!$A$1:$AA$196</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
@@ -123,7 +123,7 @@
     <t>Faible revenu</t>
   </si>
   <si>
-    <t>Asia (no high inc.)</t>
+    <t>Asie (pas de revenu élevé)</t>
   </si>
   <si>
     <t>Non pays exportateurs de ressources</t>
@@ -204,7 +204,7 @@
     <t>Revenu intermédiaire supérieur</t>
   </si>
   <si>
-    <t>Pas Afrique/ALC/Asie/Haute rev.</t>
+    <t>Pas Afrique/ALC/Asie/Revenu élevé</t>
   </si>
   <si>
     <t>AND</t>
@@ -18392,6 +18392,7 @@
       <c r="L214"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AA196"/>
   <hyperlinks>
     <hyperlink ref="B211" r:id="rId1"/>
     <hyperlink ref="B213" r:id="rId2"/>

--- a/DDAf_2022_Groupements_de_pays.xlsx
+++ b/DDAf_2022_Groupements_de_pays.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10400"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="5590"/>
   </bookViews>
   <sheets>
     <sheet name="Groupements de pays" sheetId="1" r:id="rId1"/>

--- a/DDAf_2022_Groupements_de_pays.xlsx
+++ b/DDAf_2022_Groupements_de_pays.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="5590"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11490"/>
   </bookViews>
   <sheets>
     <sheet name="Groupements de pays" sheetId="1" r:id="rId1"/>
@@ -216,7 +216,7 @@
     <t>Revenu élevé</t>
   </si>
   <si>
-    <t>Pays à revenu élévé (ALC exclus)</t>
+    <t>Pays à revenu élevé (ALC exclus)</t>
   </si>
   <si>
     <t>ARE</t>
@@ -267,7 +267,7 @@
     <t>Australie</t>
   </si>
   <si>
-    <t>Oceania</t>
+    <t>Océanie</t>
   </si>
   <si>
     <t>OCDE</t>

--- a/DDAf_2022_Groupements_de_pays.xlsx
+++ b/DDAf_2022_Groupements_de_pays.xlsx
@@ -9,13 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11490"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
   </bookViews>
   <sheets>
     <sheet name="Groupements de pays" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Groupements de pays'!$A$1:$AA$196</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Groupements de pays'!$B$3:$AA$196</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
@@ -1314,7 +1314,7 @@
     <t>TUR</t>
   </si>
   <si>
-    <t>Turquie</t>
+    <t>Türkiye</t>
   </si>
   <si>
     <t>TUV</t>
@@ -1446,7 +1446,7 @@
     <t>Responsabilité : Ce document, ainsi que les données et cartes qu'il peut comprendre, sont sans préjudice du statut de tout territoire, de la souveraineté s'exerçant sur ce dernier, du tracé des frontières et limites internationales, et du nom de tout territoire, ville ou région.</t>
   </si>
   <si>
-    <t>Si vous souhaitez explorer ces statistiques plus en profondeur, consulter les valeurs historiques de ces indicateurs ou produire des visualisations interactives, veuillez visiter le site Web https://oe.cd/AFDD-2022-fr.</t>
+    <t>Si vous souhaitez explorer ces statistiques plus en profondeur, consulter les valeurs historiques de ces indicateurs ou produire des visualisations interactives, veuillez visiter le site Web https://oe.cd/AFDD-2023-fr.</t>
   </si>
   <si>
     <t>Pour télécharger toutes les données de l'annexe statistique des Dynamiques du développement en Afrique au format Excel, y compris les données historiques remontant à 2000, cliquez ici.</t>
@@ -18392,9 +18392,9 @@
       <c r="L214"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AA196"/>
+  <autoFilter ref="B3:AA196"/>
   <hyperlinks>
-    <hyperlink ref="B211" r:id="rId1"/>
+    <hyperlink ref="B211" r:id="rId1" display="Si vous souhaitez explorer ces statistiques plus en profondeur, consulter les valeurs historiques de ces indicateurs ou produire des visualisations interactives, veuillez visiter le site Web https://oe.cd/AFDD-2022-fr."/>
     <hyperlink ref="B213" r:id="rId2"/>
     <hyperlink ref="B214" r:id="rId3"/>
   </hyperlinks>
